--- a/StructureDefinition-ext-R5-Observation.referenceRange.xlsx
+++ b/StructureDefinition-ext-R5-Observation.referenceRange.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -461,7 +461,7 @@
   </si>
   <si>
     <t>Element `Observation.referenceRange.normalValue` is part of an existing definition because parent element `Observation.referenceRange` requires a component extension (e.g., if this element is used as a content reference).
-Element `Observation.referenceRange.normalValue` is mapped to FHIR R4 structure `Observation`, but has no target element specified.</t>
+Element `Observation.referenceRange.normalValue` is will have a context of Observation.referenceRange based on following the parent source element upwards and mapping to `Observation`.</t>
   </si>
   <si>
     <t>Extension.extension:normalValue.id</t>

--- a/StructureDefinition-ext-R5-Observation.referenceRange.xlsx
+++ b/StructureDefinition-ext-R5-Observation.referenceRange.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,8 @@
 *  R4B: `Observation.referenceRange` 0..* `BackboneElement`
 *  R4: `Observation.referenceRange` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `Observation.referenceRange` is mapped to FHIR R4 element `Observation.referenceRange`.</t>
+Element `Observation.referenceRange` has is mapped to FHIR R4 element `Observation.referenceRange`, but has no comparisons.
+Note available implied context: `Observation.component.referenceRange` because `Observation.component.referenceRange` is defined as a content reference to `Observation.referenceRange`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -142,7 +143,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Extension.extension</t>
+    <t>element:Observation.referenceRange</t>
   </si>
   <si>
     <t>ID</t>
@@ -343,8 +344,8 @@
     <t>The value of the low bound of the reference range.  The low bound of the reference range endpoint is inclusive of the value (e.g.  reference range is &gt;=5 - &lt;=9). If the low bound is omitted,  it is assumed to be meaningless (e.g. reference range is &lt;=2.3).</t>
   </si>
   <si>
-    <t>Element `Observation.referenceRange.low` is part of an existing definition because parent element `Observation.referenceRange` requires a component extension (e.g., if this element is used as a content reference).
-Element `Observation.referenceRange.low` is mapped to FHIR R4 element `Observation.referenceRange.low`.</t>
+    <t>Element `Observation.referenceRange.low` is part of an existing definition because parent element `Observation.referenceRange` requires a cross-version extension.
+Element `Observation.referenceRange.low` has is mapped to FHIR R4 element `Observation.referenceRange.low`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:low.id</t>
@@ -429,8 +430,8 @@
     <t>The value of the high bound of the reference range.  The high bound of the reference range endpoint is inclusive of the value (e.g.  reference range is &gt;=5 - &lt;=9). If the high bound is omitted,  it is assumed to be meaningless (e.g. reference range is &gt;= 2.3).</t>
   </si>
   <si>
-    <t>Element `Observation.referenceRange.high` is part of an existing definition because parent element `Observation.referenceRange` requires a component extension (e.g., if this element is used as a content reference).
-Element `Observation.referenceRange.high` is mapped to FHIR R4 element `Observation.referenceRange.high`.</t>
+    <t>Element `Observation.referenceRange.high` is part of an existing definition because parent element `Observation.referenceRange` requires a cross-version extension.
+Element `Observation.referenceRange.high` has is mapped to FHIR R4 element `Observation.referenceRange.high`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:high.id</t>
@@ -460,8 +461,8 @@
     <t>The value of the normal value of the reference range.</t>
   </si>
   <si>
-    <t>Element `Observation.referenceRange.normalValue` is part of an existing definition because parent element `Observation.referenceRange` requires a component extension (e.g., if this element is used as a content reference).
-Element `Observation.referenceRange.normalValue` is will have a context of Observation.referenceRange based on following the parent source element upwards and mapping to `Observation`.</t>
+    <t>Element `Observation.referenceRange.normalValue` is part of an existing definition because parent element `Observation.referenceRange` requires a cross-version extension.
+Element `Observation.referenceRange.normalValue` has a context of Observation.referenceRange based on following the parent source element upwards and mapping to `Observation`.</t>
   </si>
   <si>
     <t>Extension.extension:normalValue.id</t>
@@ -498,8 +499,8 @@
     <t>This SHOULD be populated if there is more than one range.  If this element is not present then the normal range is assumed.</t>
   </si>
   <si>
-    <t>Need to be able to say what kind of reference range this is - normal, recommended, therapeutic, etc.,  - for proper interpretation. Element `Observation.referenceRange.type` is part of an existing definition because parent element `Observation.referenceRange` requires a component extension (e.g., if this element is used as a content reference).
-Element `Observation.referenceRange.type` is mapped to FHIR R4 element `Observation.referenceRange.type`.</t>
+    <t>Need to be able to say what kind of reference range this is - normal, recommended, therapeutic, etc.,  - for proper interpretation. Element `Observation.referenceRange.type` is part of an existing definition because parent element `Observation.referenceRange` requires a cross-version extension.
+Element `Observation.referenceRange.type` has is mapped to FHIR R4 element `Observation.referenceRange.type`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -541,8 +542,8 @@
     <t>This SHOULD be populated if there is more than one range.  If this element is not present then the normal population is assumed.</t>
   </si>
   <si>
-    <t>Need to be able to identify the target population for proper interpretation. Element `Observation.referenceRange.appliesTo` is part of an existing definition because parent element `Observation.referenceRange` requires a component extension (e.g., if this element is used as a content reference).
-Element `Observation.referenceRange.appliesTo` is mapped to FHIR R4 element `Observation.referenceRange.appliesTo`.</t>
+    <t>Need to be able to identify the target population for proper interpretation. Element `Observation.referenceRange.appliesTo` is part of an existing definition because parent element `Observation.referenceRange` requires a cross-version extension.
+Element `Observation.referenceRange.appliesTo` has is mapped to FHIR R4 element `Observation.referenceRange.appliesTo`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:appliesTo.id</t>
@@ -581,8 +582,8 @@
     <t>The age at which this reference range is applicable. This is a neonatal age (e.g. number of weeks at term) if the meaning says so.</t>
   </si>
   <si>
-    <t>Some analytes vary greatly over age. Element `Observation.referenceRange.age` is part of an existing definition because parent element `Observation.referenceRange` requires a component extension (e.g., if this element is used as a content reference).
-Element `Observation.referenceRange.age` is mapped to FHIR R4 element `Observation.referenceRange.age`.</t>
+    <t>Some analytes vary greatly over age. Element `Observation.referenceRange.age` is part of an existing definition because parent element `Observation.referenceRange` requires a cross-version extension.
+Element `Observation.referenceRange.age` has is mapped to FHIR R4 element `Observation.referenceRange.age`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:age.id</t>
@@ -616,8 +617,8 @@
     <t>Text based reference range in an observation which may be used when a quantitative range is not appropriate for an observation.  An example would be a reference value of "Negative" or a list or table of "normals".</t>
   </si>
   <si>
-    <t>Element `Observation.referenceRange.text` is part of an existing definition because parent element `Observation.referenceRange` requires a component extension (e.g., if this element is used as a content reference).
-Element `Observation.referenceRange.text` is mapped to FHIR R4 element `Observation.referenceRange.text`.</t>
+    <t>Element `Observation.referenceRange.text` is part of an existing definition because parent element `Observation.referenceRange` requires a cross-version extension.
+Element `Observation.referenceRange.text` has is mapped to FHIR R4 element `Observation.referenceRange.text`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:text.id</t>
@@ -986,7 +987,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="238.0859375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-Observation.referenceRange.xlsx
+++ b/StructureDefinition-ext-R5-Observation.referenceRange.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="195">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -128,7 +128,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -407,7 +407,7 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
@@ -518,15 +518,6 @@
     <t>Extension.extension:type.value[x]</t>
   </si>
   <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>Code for the meaning of a reference range.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-referencerange-meaning-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:appliesTo</t>
   </si>
   <si>
@@ -559,15 +550,6 @@
   </si>
   <si>
     <t>Extension.extension:appliesTo.value[x]</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes identifying the population the reference range applies to.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-referencerange-appliesto-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:age</t>
@@ -997,8 +979,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.24609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="63.74609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -3489,13 +3471,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -3533,13 +3515,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3564,16 +3546,16 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O25" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3642,7 +3624,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>106</v>
@@ -3745,7 +3727,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>108</v>
@@ -3850,7 +3832,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>114</v>
@@ -3893,7 +3875,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3955,7 +3937,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>123</v>
@@ -3984,13 +3966,13 @@
         <v>147</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4016,13 +3998,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -4060,13 +4042,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4091,14 +4073,14 @@
         <v>94</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4167,7 +4149,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>106</v>
@@ -4270,7 +4252,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>108</v>
@@ -4375,7 +4357,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>114</v>
@@ -4418,7 +4400,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4480,7 +4462,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>123</v>
@@ -4506,13 +4488,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4583,13 +4565,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -4614,14 +4596,14 @@
         <v>94</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -4690,7 +4672,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>106</v>
@@ -4793,7 +4775,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>108</v>
@@ -4898,7 +4880,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>114</v>
@@ -4941,7 +4923,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5003,7 +4985,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>123</v>
@@ -5029,13 +5011,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5237,13 +5219,13 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
